--- a/data/pca/factorExposure/factorExposure_2017-05-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02309565466660143</v>
+        <v>0.009853120922867862</v>
       </c>
       <c r="C2">
-        <v>0.006642694321202284</v>
+        <v>0.04299643552125604</v>
       </c>
       <c r="D2">
-        <v>-0.0310600651899731</v>
+        <v>-0.02962740532135856</v>
       </c>
       <c r="E2">
-        <v>0.007825734199545818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03145544813308469</v>
+      </c>
+      <c r="F2">
+        <v>0.009046653838542565</v>
+      </c>
+      <c r="G2">
+        <v>-0.09527642502994883</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01750330667739673</v>
+        <v>0.04321250061043067</v>
       </c>
       <c r="C3">
-        <v>-0.019181486743743</v>
+        <v>0.1020428579353657</v>
       </c>
       <c r="D3">
-        <v>-0.1060521527537225</v>
+        <v>-0.01764582086489607</v>
       </c>
       <c r="E3">
-        <v>0.04921325077452141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09686569219108658</v>
+      </c>
+      <c r="F3">
+        <v>0.002970935351300697</v>
+      </c>
+      <c r="G3">
+        <v>-0.1933108820854845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0250712330545028</v>
+        <v>0.05507513033561291</v>
       </c>
       <c r="C4">
-        <v>-0.002655731357767364</v>
+        <v>0.06776989717043425</v>
       </c>
       <c r="D4">
-        <v>-0.08529081951872619</v>
+        <v>-0.02446832638490528</v>
       </c>
       <c r="E4">
-        <v>-0.006876344244142613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02724721055366918</v>
+      </c>
+      <c r="F4">
+        <v>0.0113289270157863</v>
+      </c>
+      <c r="G4">
+        <v>-0.09842527603896963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01218781428814414</v>
+        <v>0.03621821917377354</v>
       </c>
       <c r="C6">
-        <v>0.0149133035831021</v>
+        <v>0.05224587151488975</v>
       </c>
       <c r="D6">
-        <v>-0.07853740884694184</v>
+        <v>-0.01688324026393387</v>
       </c>
       <c r="E6">
-        <v>-0.007858854235842407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.03175658995382757</v>
+      </c>
+      <c r="F6">
+        <v>0.01094890492145494</v>
+      </c>
+      <c r="G6">
+        <v>-0.07979376975640137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01187001216562922</v>
+        <v>0.02065335986003806</v>
       </c>
       <c r="C7">
-        <v>-0.001014392472793482</v>
+        <v>0.04120082191534093</v>
       </c>
       <c r="D7">
-        <v>-0.04358706121804803</v>
+        <v>-0.01350418874043842</v>
       </c>
       <c r="E7">
-        <v>-0.03970918090561745</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.004066624922504077</v>
+      </c>
+      <c r="F7">
+        <v>-0.003418977014223621</v>
+      </c>
+      <c r="G7">
+        <v>-0.126422623597836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0002228723081659245</v>
+        <v>0.003346071926291061</v>
       </c>
       <c r="C8">
-        <v>0.002356702095067349</v>
+        <v>0.02485584237349461</v>
       </c>
       <c r="D8">
-        <v>-0.004946517494320614</v>
+        <v>-0.003982684522376428</v>
       </c>
       <c r="E8">
-        <v>-0.0003876102584461747</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02403402411113966</v>
+      </c>
+      <c r="F8">
+        <v>0.006984110987726528</v>
+      </c>
+      <c r="G8">
+        <v>-0.06939090658922265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01727410371102782</v>
+        <v>0.03297624588607535</v>
       </c>
       <c r="C9">
-        <v>-0.006005897970896362</v>
+        <v>0.04889426816703074</v>
       </c>
       <c r="D9">
-        <v>-0.06168348803176436</v>
+        <v>-0.0165311529774555</v>
       </c>
       <c r="E9">
-        <v>-0.0002376482198846423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01662153573053956</v>
+      </c>
+      <c r="F9">
+        <v>0.008142847364570886</v>
+      </c>
+      <c r="G9">
+        <v>-0.09670857624649491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.04521925889313524</v>
+        <v>0.09909534466483158</v>
       </c>
       <c r="C10">
-        <v>-0.1809693523085094</v>
+        <v>-0.1811644107240087</v>
       </c>
       <c r="D10">
-        <v>0.08711610431209633</v>
+        <v>0.01514487955796666</v>
       </c>
       <c r="E10">
-        <v>0.03000981059297437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01937084522956167</v>
+      </c>
+      <c r="F10">
+        <v>-0.02357455910136641</v>
+      </c>
+      <c r="G10">
+        <v>-0.06095173969349832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0001353791430331601</v>
+        <v>0.03476597804880568</v>
       </c>
       <c r="C11">
-        <v>0.003935646564224577</v>
+        <v>0.0544392593509312</v>
       </c>
       <c r="D11">
-        <v>-0.05650017710526334</v>
+        <v>-0.002280877310710079</v>
       </c>
       <c r="E11">
-        <v>0.00225365351967082</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01020232644084948</v>
+      </c>
+      <c r="F11">
+        <v>0.02176761605266585</v>
+      </c>
+      <c r="G11">
+        <v>-0.0878774458848654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.00522237057320325</v>
+        <v>0.03645385754992485</v>
       </c>
       <c r="C12">
-        <v>0.00268393261254539</v>
+        <v>0.04932845663136935</v>
       </c>
       <c r="D12">
-        <v>-0.05185782657155762</v>
+        <v>-0.006299547730163676</v>
       </c>
       <c r="E12">
-        <v>-0.01199111510641791</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.003243245903737679</v>
+      </c>
+      <c r="F12">
+        <v>0.002552005826761366</v>
+      </c>
+      <c r="G12">
+        <v>-0.082871693458342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02437253078626084</v>
+        <v>0.01613557138652375</v>
       </c>
       <c r="C13">
-        <v>-0.006496680249075945</v>
+        <v>0.04111909180770833</v>
       </c>
       <c r="D13">
-        <v>-0.037021183694183</v>
+        <v>-0.02619996337508742</v>
       </c>
       <c r="E13">
-        <v>0.01954438833818824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02982168095345427</v>
+      </c>
+      <c r="F13">
+        <v>0.005876224715798639</v>
+      </c>
+      <c r="G13">
+        <v>-0.1255785311654798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009475342333021572</v>
+        <v>0.008629994005040501</v>
       </c>
       <c r="C14">
-        <v>-0.00774981865365649</v>
+        <v>0.02920649830573193</v>
       </c>
       <c r="D14">
-        <v>-0.01973002902595473</v>
+        <v>-0.009927207357460601</v>
       </c>
       <c r="E14">
-        <v>0.00164500612767049</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.002790779260362867</v>
+      </c>
+      <c r="F14">
+        <v>-0.008166580397813409</v>
+      </c>
+      <c r="G14">
+        <v>-0.1015076220753759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.00192163590823939</v>
+        <v>0.03325581635814322</v>
       </c>
       <c r="C16">
-        <v>-0.003790675343575469</v>
+        <v>0.04765097505186323</v>
       </c>
       <c r="D16">
-        <v>-0.04705256168849496</v>
+        <v>-0.001820426310177931</v>
       </c>
       <c r="E16">
-        <v>-0.008481464195240087</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.009157444820348025</v>
+      </c>
+      <c r="F16">
+        <v>0.003813487569618153</v>
+      </c>
+      <c r="G16">
+        <v>-0.09048108268616011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01362621322878409</v>
+        <v>0.02147743463395108</v>
       </c>
       <c r="C19">
-        <v>0.0001165459417721886</v>
+        <v>0.05472339644046208</v>
       </c>
       <c r="D19">
-        <v>-0.05061614845053039</v>
+        <v>-0.01891827687066469</v>
       </c>
       <c r="E19">
-        <v>0.0008984944983240994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06922601283693175</v>
+      </c>
+      <c r="F19">
+        <v>0.02006401226102494</v>
+      </c>
+      <c r="G19">
+        <v>-0.1359351408501518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.010929771965131</v>
+        <v>0.01519737012927972</v>
       </c>
       <c r="C20">
-        <v>0.001179126455305926</v>
+        <v>0.04005963608213192</v>
       </c>
       <c r="D20">
-        <v>-0.0364014409478769</v>
+        <v>-0.01413047404786148</v>
       </c>
       <c r="E20">
-        <v>0.02934348391931807</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02988827789380342</v>
+      </c>
+      <c r="F20">
+        <v>-0.01213040723206333</v>
+      </c>
+      <c r="G20">
+        <v>-0.1080735875963969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01482078039087929</v>
+        <v>0.01251857380636469</v>
       </c>
       <c r="C21">
-        <v>-0.003745756061070024</v>
+        <v>0.04012478329575855</v>
       </c>
       <c r="D21">
-        <v>-0.03902798809914053</v>
+        <v>-0.01881901895240383</v>
       </c>
       <c r="E21">
-        <v>0.007283210945937401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.04222178797343162</v>
+      </c>
+      <c r="F21">
+        <v>0.003151044243752209</v>
+      </c>
+      <c r="G21">
+        <v>-0.1329540512871969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0009238827521976569</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0001835098125629955</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.0003946000481252315</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.00153036910469461</v>
+      </c>
+      <c r="F22">
+        <v>0.001088690201698901</v>
+      </c>
+      <c r="G22">
+        <v>-0.003515622182071584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0009282391482510849</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0001830922478350389</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.0003947226037225327</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.001536031527509476</v>
+      </c>
+      <c r="F23">
+        <v>0.001087208343759534</v>
+      </c>
+      <c r="G23">
+        <v>-0.003528476643921954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.003033764324163518</v>
+        <v>0.02882022349042876</v>
       </c>
       <c r="C24">
-        <v>0.009482884819373181</v>
+        <v>0.05196540751634391</v>
       </c>
       <c r="D24">
-        <v>-0.05048945817489611</v>
+        <v>-0.007054648673297983</v>
       </c>
       <c r="E24">
-        <v>-0.00694496277172415</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.005880943282485859</v>
+      </c>
+      <c r="F24">
+        <v>0.01326515570339273</v>
+      </c>
+      <c r="G24">
+        <v>-0.0884046801940586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01273568673955602</v>
+        <v>0.04315916087158918</v>
       </c>
       <c r="C25">
-        <v>-0.005092926674683891</v>
+        <v>0.05913090488593305</v>
       </c>
       <c r="D25">
-        <v>-0.06113191606438002</v>
+        <v>-0.0110578455808782</v>
       </c>
       <c r="E25">
-        <v>-0.01051271398960283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001571316481926422</v>
+      </c>
+      <c r="F25">
+        <v>0.006278666174368646</v>
+      </c>
+      <c r="G25">
+        <v>-0.09910211622173996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.0231591183710072</v>
+        <v>0.01415449943110207</v>
       </c>
       <c r="C26">
-        <v>-0.0008640757526288649</v>
+        <v>0.01146582013542055</v>
       </c>
       <c r="D26">
-        <v>-0.003040473923033069</v>
+        <v>-0.02400251850648708</v>
       </c>
       <c r="E26">
-        <v>-0.003628405357938862</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.007022624693218336</v>
+      </c>
+      <c r="F26">
+        <v>-0.007999350151839106</v>
+      </c>
+      <c r="G26">
+        <v>-0.08070890818646421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.07500687427153026</v>
+        <v>0.1257300973740149</v>
       </c>
       <c r="C28">
-        <v>-0.2420252344666348</v>
+        <v>-0.2375758980727052</v>
       </c>
       <c r="D28">
-        <v>0.1066811109257062</v>
+        <v>0.005985168149610063</v>
       </c>
       <c r="E28">
-        <v>-0.000208095207122272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.005139154042705992</v>
+      </c>
+      <c r="F28">
+        <v>-0.01540625450946158</v>
+      </c>
+      <c r="G28">
+        <v>-0.05357105886698961</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01065151733864678</v>
+        <v>0.009422309520565391</v>
       </c>
       <c r="C29">
-        <v>-0.01279172570183264</v>
+        <v>0.02285884930655249</v>
       </c>
       <c r="D29">
-        <v>-0.02085065267634551</v>
+        <v>-0.008943013149821006</v>
       </c>
       <c r="E29">
-        <v>0.004125021973603595</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.0009186183036874197</v>
+      </c>
+      <c r="F29">
+        <v>-0.01699779282840604</v>
+      </c>
+      <c r="G29">
+        <v>-0.09449078654288448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02184618656149236</v>
+        <v>0.04103489888472164</v>
       </c>
       <c r="C30">
-        <v>0.0168458400006668</v>
+        <v>0.0688753049839735</v>
       </c>
       <c r="D30">
-        <v>-0.09670192422454638</v>
+        <v>-0.02884235709880029</v>
       </c>
       <c r="E30">
-        <v>0.03414845878651292</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.0533194027403894</v>
+      </c>
+      <c r="F30">
+        <v>0.04671997868543233</v>
+      </c>
+      <c r="G30">
+        <v>-0.1121057853830726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01243948582881275</v>
+        <v>0.05337602239602974</v>
       </c>
       <c r="C31">
-        <v>-0.02562139463774181</v>
+        <v>0.03781870003200622</v>
       </c>
       <c r="D31">
-        <v>-0.04006615196514891</v>
+        <v>-0.003686926053195152</v>
       </c>
       <c r="E31">
-        <v>-4.803414054159032e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.001848729326442894</v>
+      </c>
+      <c r="F31">
+        <v>-0.04078335983735511</v>
+      </c>
+      <c r="G31">
+        <v>-0.09688414528741988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.003536449795231184</v>
+        <v>0.001726969723189896</v>
       </c>
       <c r="C32">
-        <v>-0.01772610905495683</v>
+        <v>0.02525968604486009</v>
       </c>
       <c r="D32">
-        <v>-0.01012084463826112</v>
+        <v>0.003484085845590038</v>
       </c>
       <c r="E32">
-        <v>-0.03803641348917247</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01954793016234238</v>
+      </c>
+      <c r="F32">
+        <v>0.03877143662238075</v>
+      </c>
+      <c r="G32">
+        <v>-0.09130166857828982</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01318371255543149</v>
+        <v>0.02783012490533769</v>
       </c>
       <c r="C33">
-        <v>-0.004180926654451897</v>
+        <v>0.05001583823166487</v>
       </c>
       <c r="D33">
-        <v>-0.04212382262500815</v>
+        <v>-0.01562855551105097</v>
       </c>
       <c r="E33">
-        <v>0.02246801095367352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03607830146627703</v>
+      </c>
+      <c r="F33">
+        <v>0.01720436058446104</v>
+      </c>
+      <c r="G33">
+        <v>-0.150973405430429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.002235517321274512</v>
+        <v>0.04065334329943859</v>
       </c>
       <c r="C34">
-        <v>-0.01163368068995957</v>
+        <v>0.0612755446986042</v>
       </c>
       <c r="D34">
-        <v>-0.06000373734777911</v>
+        <v>0.004845296262116072</v>
       </c>
       <c r="E34">
-        <v>-0.02068704558961284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0002580459586310198</v>
+      </c>
+      <c r="F34">
+        <v>0.02034923928350998</v>
+      </c>
+      <c r="G34">
+        <v>-0.09512164300492146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01420533500131257</v>
+        <v>0.01632819771876491</v>
       </c>
       <c r="C36">
-        <v>-0.01164216549225102</v>
+        <v>0.009565717330239922</v>
       </c>
       <c r="D36">
-        <v>-0.0075427873291879</v>
+        <v>-0.01231267201219619</v>
       </c>
       <c r="E36">
-        <v>-0.00275753544801254</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.004427327079808525</v>
+      </c>
+      <c r="F36">
+        <v>-0.006461225108552182</v>
+      </c>
+      <c r="G36">
+        <v>-0.08856088948056763</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.000184322120929875</v>
+        <v>0.03175710078553518</v>
       </c>
       <c r="C38">
-        <v>-0.02455052725014379</v>
+        <v>0.03145984495808957</v>
       </c>
       <c r="D38">
-        <v>-0.05016160769573396</v>
+        <v>0.007628603381984954</v>
       </c>
       <c r="E38">
-        <v>-0.00701144511857096</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002333666437466937</v>
+      </c>
+      <c r="F38">
+        <v>-0.02058597168784061</v>
+      </c>
+      <c r="G38">
+        <v>-0.08313258376685295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0004088492599336212</v>
+        <v>0.03630792919523273</v>
       </c>
       <c r="C39">
-        <v>0.03377734505471498</v>
+        <v>0.08146122261378229</v>
       </c>
       <c r="D39">
-        <v>-0.1001955906731977</v>
+        <v>-0.01157116043690878</v>
       </c>
       <c r="E39">
-        <v>0.01389131638703578</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02156373577374032</v>
+      </c>
+      <c r="F39">
+        <v>0.0249494549633601</v>
+      </c>
+      <c r="G39">
+        <v>-0.08584114630329626</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01289290334944523</v>
+        <v>0.01450990574756662</v>
       </c>
       <c r="C40">
-        <v>-0.005817021174627276</v>
+        <v>0.04230351861707823</v>
       </c>
       <c r="D40">
-        <v>-0.04191781573554702</v>
+        <v>-0.01467038057997895</v>
       </c>
       <c r="E40">
-        <v>-0.01252794970805741</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01911595783105942</v>
+      </c>
+      <c r="F40">
+        <v>-0.0169062092035656</v>
+      </c>
+      <c r="G40">
+        <v>-0.1235147418723427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.008775186297690207</v>
+        <v>0.02083591079874104</v>
       </c>
       <c r="C41">
-        <v>-0.02007525910121698</v>
+        <v>0.002455079981043449</v>
       </c>
       <c r="D41">
-        <v>0.009582361371316602</v>
+        <v>-0.004170406084682824</v>
       </c>
       <c r="E41">
-        <v>-0.009037189280966902</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002845359565707895</v>
+      </c>
+      <c r="F41">
+        <v>-0.01563785587908687</v>
+      </c>
+      <c r="G41">
+        <v>-0.07809078705450155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.08584517977552439</v>
+        <v>0.008907090578040656</v>
       </c>
       <c r="C42">
-        <v>0.04651031428974065</v>
+        <v>0.03013162733714513</v>
       </c>
       <c r="D42">
-        <v>-0.1408984346145217</v>
+        <v>-0.09027510485078907</v>
       </c>
       <c r="E42">
-        <v>0.2943705508721213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.01696345236766528</v>
+      </c>
+      <c r="F42">
+        <v>-0.03859754937486758</v>
+      </c>
+      <c r="G42">
+        <v>0.1020445620718794</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01005135287116955</v>
+        <v>0.03453325672336019</v>
       </c>
       <c r="C43">
-        <v>-0.021617304588073</v>
+        <v>0.01831915019685868</v>
       </c>
       <c r="D43">
-        <v>0.004161765068082988</v>
+        <v>-0.005960368684162077</v>
       </c>
       <c r="E43">
-        <v>-0.01183849825609029</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01711149638900806</v>
+      </c>
+      <c r="F43">
+        <v>-0.004747581600932083</v>
+      </c>
+      <c r="G43">
+        <v>-0.1146951395565924</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002324448580293975</v>
+        <v>0.01274630581234338</v>
       </c>
       <c r="C44">
-        <v>0.004595535920633265</v>
+        <v>0.05937058396326666</v>
       </c>
       <c r="D44">
-        <v>-0.05558156905319937</v>
+        <v>-0.006830936183142676</v>
       </c>
       <c r="E44">
-        <v>-0.007279754175253215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01880369676959887</v>
+      </c>
+      <c r="F44">
+        <v>-0.007076598354181231</v>
+      </c>
+      <c r="G44">
+        <v>-0.1026093388114786</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01169086486311032</v>
+        <v>0.007617175615771794</v>
       </c>
       <c r="C46">
-        <v>-0.005620304225536406</v>
+        <v>0.01756629768944016</v>
       </c>
       <c r="D46">
-        <v>-0.006780529089867985</v>
+        <v>-0.01265617986627316</v>
       </c>
       <c r="E46">
-        <v>0.009962872283597572</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.001202185340949744</v>
+      </c>
+      <c r="F46">
+        <v>-0.01588850299795438</v>
+      </c>
+      <c r="G46">
+        <v>-0.09843841707779953</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.007861866930292727</v>
+        <v>0.07748233038203917</v>
       </c>
       <c r="C47">
-        <v>-0.03260945824956242</v>
+        <v>0.06747351020340119</v>
       </c>
       <c r="D47">
-        <v>-0.07873946568372464</v>
+        <v>0.005066412378938587</v>
       </c>
       <c r="E47">
-        <v>-0.01203372831631542</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.006841917663017966</v>
+      </c>
+      <c r="F47">
+        <v>-0.05547552225771402</v>
+      </c>
+      <c r="G47">
+        <v>-0.08463025886013749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.005464728833206655</v>
+        <v>0.01958045245334538</v>
       </c>
       <c r="C48">
-        <v>-0.01474500726210343</v>
+        <v>0.01272244660798841</v>
       </c>
       <c r="D48">
-        <v>-0.02075227653735982</v>
+        <v>-0.001920236903393233</v>
       </c>
       <c r="E48">
-        <v>0.002021567849041719</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002222937848627046</v>
+      </c>
+      <c r="F48">
+        <v>-0.01970443479038175</v>
+      </c>
+      <c r="G48">
+        <v>-0.09181860633479921</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0103141206886037</v>
+        <v>0.07513781029413368</v>
       </c>
       <c r="C50">
-        <v>-0.03520010638759957</v>
+        <v>0.07238426008799181</v>
       </c>
       <c r="D50">
-        <v>-0.07500901386453392</v>
+        <v>0.002373141124066804</v>
       </c>
       <c r="E50">
-        <v>-0.02729261845952802</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.006331290968856864</v>
+      </c>
+      <c r="F50">
+        <v>-0.05570715505021629</v>
+      </c>
+      <c r="G50">
+        <v>-0.09769850233991152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007983364450477252</v>
+        <v>0.01459131244033629</v>
       </c>
       <c r="C51">
-        <v>-0.006248189818220845</v>
+        <v>0.03689976144778907</v>
       </c>
       <c r="D51">
-        <v>-0.02364678493850488</v>
+        <v>-0.01049015958518399</v>
       </c>
       <c r="E51">
-        <v>-0.006094481478644147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01919241150315047</v>
+      </c>
+      <c r="F51">
+        <v>0.0231857123043156</v>
+      </c>
+      <c r="G51">
+        <v>-0.1232916593592606</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.01003666418670116</v>
+        <v>0.08169378738586969</v>
       </c>
       <c r="C53">
-        <v>-0.02877149531503375</v>
+        <v>0.08587839514264821</v>
       </c>
       <c r="D53">
-        <v>-0.1348552507876777</v>
+        <v>0.003431292736691217</v>
       </c>
       <c r="E53">
-        <v>-0.02358940644167016</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02429849768719558</v>
+      </c>
+      <c r="F53">
+        <v>-0.06598545661646867</v>
+      </c>
+      <c r="G53">
+        <v>-0.08713928862669459</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.007907625678757444</v>
+        <v>0.03224908645975927</v>
       </c>
       <c r="C54">
-        <v>-0.04067625688769384</v>
+        <v>0.01780461557238342</v>
       </c>
       <c r="D54">
-        <v>-0.001508867180588876</v>
+        <v>0.001571154251523955</v>
       </c>
       <c r="E54">
-        <v>0.01725045205512789</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01360265715311382</v>
+      </c>
+      <c r="F54">
+        <v>-0.004493534473616311</v>
+      </c>
+      <c r="G54">
+        <v>-0.1025731820142029</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.005498114872983149</v>
+        <v>0.07176282593019538</v>
       </c>
       <c r="C55">
-        <v>-0.01908029890630461</v>
+        <v>0.06890172177781725</v>
       </c>
       <c r="D55">
-        <v>-0.1082413244278518</v>
+        <v>0.005018505919631666</v>
       </c>
       <c r="E55">
-        <v>-0.007604496606148935</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.0217538626590864</v>
+      </c>
+      <c r="F55">
+        <v>-0.06318110423212686</v>
+      </c>
+      <c r="G55">
+        <v>-0.06180992375498338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.01155875825177866</v>
+        <v>0.1373875755310776</v>
       </c>
       <c r="C56">
-        <v>-0.04975891601325418</v>
+        <v>0.1085225821830539</v>
       </c>
       <c r="D56">
-        <v>-0.1667056731115404</v>
+        <v>0.01260653381804101</v>
       </c>
       <c r="E56">
-        <v>-0.03009065791474045</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0308236248841531</v>
+      </c>
+      <c r="F56">
+        <v>-0.08150653038722236</v>
+      </c>
+      <c r="G56">
+        <v>-0.03580074240477973</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02435527468632439</v>
+        <v>0.005616523184500264</v>
       </c>
       <c r="C57">
-        <v>-0.0002932755623481163</v>
+        <v>0.007174738548591943</v>
       </c>
       <c r="D57">
-        <v>-0.03656428724373772</v>
+        <v>-0.02338856673318642</v>
       </c>
       <c r="E57">
-        <v>0.03921645336768492</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02483615354455121</v>
+      </c>
+      <c r="F57">
+        <v>0.01110063721596783</v>
+      </c>
+      <c r="G57">
+        <v>-0.02729286550308551</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01514558173137917</v>
+        <v>0.05230913060901135</v>
       </c>
       <c r="C58">
-        <v>-0.03506191474514965</v>
+        <v>0.04927000479618672</v>
       </c>
       <c r="D58">
-        <v>-0.1398683455808835</v>
+        <v>-0.02389922620769214</v>
       </c>
       <c r="E58">
-        <v>0.838771285016685</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9365976815630694</v>
+      </c>
+      <c r="F58">
+        <v>-0.2245856570081945</v>
+      </c>
+      <c r="G58">
+        <v>0.1608946563130903</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.07689971276626906</v>
+        <v>0.1605907298904666</v>
       </c>
       <c r="C59">
-        <v>-0.2649549163666228</v>
+        <v>-0.203101756404933</v>
       </c>
       <c r="D59">
-        <v>0.08912500823257226</v>
+        <v>0.01145958569120764</v>
       </c>
       <c r="E59">
-        <v>-0.0203626196995802</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01697617428288171</v>
+      </c>
+      <c r="F59">
+        <v>-0.001096015566151941</v>
+      </c>
+      <c r="G59">
+        <v>-0.0435951417350144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.06649423458820612</v>
+        <v>0.2877894105554292</v>
       </c>
       <c r="C60">
-        <v>-0.1573505346590758</v>
+        <v>0.1072202939995624</v>
       </c>
       <c r="D60">
-        <v>-0.1439351338742843</v>
+        <v>-0.01172658020795601</v>
       </c>
       <c r="E60">
-        <v>-0.06303762367413299</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.00744324685819083</v>
+      </c>
+      <c r="F60">
+        <v>0.3441901058678921</v>
+      </c>
+      <c r="G60">
+        <v>0.1479839566451474</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002229097592439942</v>
+        <v>0.03801415186498534</v>
       </c>
       <c r="C61">
-        <v>0.006463620902327168</v>
+        <v>0.06700374978416876</v>
       </c>
       <c r="D61">
-        <v>-0.07491057130553994</v>
+        <v>-0.005291032885022388</v>
       </c>
       <c r="E61">
-        <v>-0.005788549422234355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01382259847022203</v>
+      </c>
+      <c r="F61">
+        <v>0.01616665650794932</v>
+      </c>
+      <c r="G61">
+        <v>-0.09141619233990654</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.00825111287367347</v>
+        <v>0.01534701388171546</v>
       </c>
       <c r="C63">
-        <v>-0.0008584126359187981</v>
+        <v>0.03039335879854945</v>
       </c>
       <c r="D63">
-        <v>-0.02847704795747621</v>
+        <v>-0.008480600954597422</v>
       </c>
       <c r="E63">
-        <v>-0.01309818432794486</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.001239867719509335</v>
+      </c>
+      <c r="F63">
+        <v>-0.01763245838367628</v>
+      </c>
+      <c r="G63">
+        <v>-0.09429315867441049</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.0107672684093929</v>
+        <v>0.04759432362353621</v>
       </c>
       <c r="C64">
-        <v>-0.01668497660280897</v>
+        <v>0.04726123229227324</v>
       </c>
       <c r="D64">
-        <v>-0.06327757352875829</v>
+        <v>-0.006190383908066049</v>
       </c>
       <c r="E64">
-        <v>-0.006979230137337796</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0004011251455244564</v>
+      </c>
+      <c r="F64">
+        <v>0.007402148563074297</v>
+      </c>
+      <c r="G64">
+        <v>-0.08842827813696308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01724084780223519</v>
+        <v>0.07429958445317285</v>
       </c>
       <c r="C65">
-        <v>0.006254091754042635</v>
+        <v>0.05946116337612695</v>
       </c>
       <c r="D65">
-        <v>-0.1050968976067582</v>
+        <v>-0.01646300885945108</v>
       </c>
       <c r="E65">
-        <v>-0.02444305932943505</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.03345169257432745</v>
+      </c>
+      <c r="F65">
+        <v>0.03186019351287457</v>
+      </c>
+      <c r="G65">
+        <v>-0.03460784020028016</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.0002603837562384252</v>
+        <v>0.05107154569909594</v>
       </c>
       <c r="C66">
-        <v>0.03429963215577278</v>
+        <v>0.108764697436159</v>
       </c>
       <c r="D66">
-        <v>-0.1333925601364982</v>
+        <v>-0.01151977303998256</v>
       </c>
       <c r="E66">
-        <v>0.004217349651194384</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03029059447763584</v>
+      </c>
+      <c r="F66">
+        <v>0.03632799345157088</v>
+      </c>
+      <c r="G66">
+        <v>-0.1029021244061944</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.008679021044059099</v>
+        <v>0.05483932099408471</v>
       </c>
       <c r="C67">
-        <v>-0.04218962212925053</v>
+        <v>0.03508274769529785</v>
       </c>
       <c r="D67">
-        <v>-0.06915869565791978</v>
+        <v>0.006048893384374298</v>
       </c>
       <c r="E67">
-        <v>-0.0108337258147877</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004598495285462738</v>
+      </c>
+      <c r="F67">
+        <v>-0.01970302817887445</v>
+      </c>
+      <c r="G67">
+        <v>-0.07440588136429284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.09186796283122212</v>
+        <v>0.1544208395912662</v>
       </c>
       <c r="C68">
-        <v>-0.2512761338090737</v>
+        <v>-0.2693117329996363</v>
       </c>
       <c r="D68">
-        <v>0.1418114349330742</v>
+        <v>-0.00620454608473428</v>
       </c>
       <c r="E68">
-        <v>0.02757067155771954</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01259041982347413</v>
+      </c>
+      <c r="F68">
+        <v>-0.03153335279714803</v>
+      </c>
+      <c r="G68">
+        <v>-0.03174780534938092</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003436717160225092</v>
+        <v>0.08206560467343867</v>
       </c>
       <c r="C69">
-        <v>-0.02923333682807443</v>
+        <v>0.07111070427932972</v>
       </c>
       <c r="D69">
-        <v>-0.08212518130819224</v>
+        <v>0.008928337487205838</v>
       </c>
       <c r="E69">
-        <v>-0.02416353640416518</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02236696375640809</v>
+      </c>
+      <c r="F69">
+        <v>-0.03656447361506068</v>
+      </c>
+      <c r="G69">
+        <v>-0.09655410012605406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.07089015628195321</v>
+        <v>0.1404488449321186</v>
       </c>
       <c r="C71">
-        <v>-0.2125830362464823</v>
+        <v>-0.2278687319875644</v>
       </c>
       <c r="D71">
-        <v>0.08960436486056848</v>
+        <v>0.002503472019172088</v>
       </c>
       <c r="E71">
-        <v>0.02769251278281506</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03268261956142909</v>
+      </c>
+      <c r="F71">
+        <v>-0.01849837074578422</v>
+      </c>
+      <c r="G71">
+        <v>-0.06891753021607382</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>7.239965010423637e-06</v>
+        <v>0.08447584939213304</v>
       </c>
       <c r="C72">
-        <v>-0.01792314552895664</v>
+        <v>0.07172500733220173</v>
       </c>
       <c r="D72">
-        <v>-0.1062659642964743</v>
+        <v>0.008420583142551907</v>
       </c>
       <c r="E72">
-        <v>-0.04151979791923785</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.006171333674122054</v>
+      </c>
+      <c r="F72">
+        <v>0.03894943935821696</v>
+      </c>
+      <c r="G72">
+        <v>-0.08295658972558533</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.07908916387387151</v>
+        <v>0.3762778624193974</v>
       </c>
       <c r="C73">
-        <v>-0.1607391588343371</v>
+        <v>0.1181632575802475</v>
       </c>
       <c r="D73">
-        <v>-0.2646014420880582</v>
+        <v>-0.02047753928473056</v>
       </c>
       <c r="E73">
-        <v>-0.03542311061051377</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06352008099711268</v>
+      </c>
+      <c r="F73">
+        <v>0.5775489073503144</v>
+      </c>
+      <c r="G73">
+        <v>0.266770078505539</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.00976329619907979</v>
+        <v>0.1047984537180794</v>
       </c>
       <c r="C74">
-        <v>-0.04514219383031264</v>
+        <v>0.109247667411106</v>
       </c>
       <c r="D74">
-        <v>-0.1777422576786129</v>
+        <v>0.009366835984555904</v>
       </c>
       <c r="E74">
-        <v>-0.01814193245518045</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.006419708666606244</v>
+      </c>
+      <c r="F74">
+        <v>-0.06956788671207499</v>
+      </c>
+      <c r="G74">
+        <v>-0.0792327997481768</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.02766160519479225</v>
+        <v>0.2487929502304274</v>
       </c>
       <c r="C75">
-        <v>-0.1212088917231024</v>
+        <v>0.1521866930261798</v>
       </c>
       <c r="D75">
-        <v>-0.3131353494642572</v>
+        <v>0.03083650360632863</v>
       </c>
       <c r="E75">
-        <v>-0.03746326527382642</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05513998356030042</v>
+      </c>
+      <c r="F75">
+        <v>-0.1786431421811291</v>
+      </c>
+      <c r="G75">
+        <v>0.02832924754673285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.007526526083066388</v>
+        <v>0.1194158834540738</v>
       </c>
       <c r="C76">
-        <v>-0.06031706753346745</v>
+        <v>0.1096104551907311</v>
       </c>
       <c r="D76">
-        <v>-0.2255647761195825</v>
+        <v>0.01866100080638492</v>
       </c>
       <c r="E76">
-        <v>-0.05335739030374854</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02956480631248086</v>
+      </c>
+      <c r="F76">
+        <v>-0.110765668500644</v>
+      </c>
+      <c r="G76">
+        <v>-0.05555982582840832</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01515581172969987</v>
+        <v>0.06785715965729766</v>
       </c>
       <c r="C77">
-        <v>-0.01004134917576314</v>
+        <v>0.06013532925448736</v>
       </c>
       <c r="D77">
-        <v>-0.07217025153856155</v>
+        <v>-0.0109650808235302</v>
       </c>
       <c r="E77">
-        <v>0.01204161177530852</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.0412595722404417</v>
+      </c>
+      <c r="F77">
+        <v>0.01288204965829263</v>
+      </c>
+      <c r="G77">
+        <v>-0.06468892113413022</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.004238422984360466</v>
+        <v>0.04185809110856538</v>
       </c>
       <c r="C78">
-        <v>0.001363840601112024</v>
+        <v>0.05168151204087089</v>
       </c>
       <c r="D78">
-        <v>-0.05890001688386991</v>
+        <v>-0.005537442671166847</v>
       </c>
       <c r="E78">
-        <v>0.01237278182341768</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02277238443970052</v>
+      </c>
+      <c r="F78">
+        <v>0.03758556286297321</v>
+      </c>
+      <c r="G78">
+        <v>-0.09143381509719416</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01126976016310639</v>
+        <v>0.04242240381288785</v>
       </c>
       <c r="C80">
-        <v>0.001368570344251794</v>
+        <v>0.07278321858473334</v>
       </c>
       <c r="D80">
-        <v>-0.1563480666156983</v>
+        <v>-0.01104962178204535</v>
       </c>
       <c r="E80">
-        <v>-0.3715252452021278</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03428054907265071</v>
+      </c>
+      <c r="F80">
+        <v>0.01729560775941838</v>
+      </c>
+      <c r="G80">
+        <v>-0.2487034130484586</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.0166944643058763</v>
+        <v>0.1378077868634259</v>
       </c>
       <c r="C81">
-        <v>-0.06956799126535157</v>
+        <v>0.09579797283709604</v>
       </c>
       <c r="D81">
-        <v>-0.183404456626277</v>
+        <v>0.01515170583798571</v>
       </c>
       <c r="E81">
-        <v>-0.04115828276282544</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03391327162775541</v>
+      </c>
+      <c r="F81">
+        <v>-0.1308883631906146</v>
+      </c>
+      <c r="G81">
+        <v>-0.02223436548104776</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1300556408675444</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.0766882748785523</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.008618431047353376</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.09065660147572356</v>
+      </c>
+      <c r="F82">
+        <v>-0.04884918103062048</v>
+      </c>
+      <c r="G82">
+        <v>-0.05719823539883707</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.009036963954045709</v>
+        <v>0.0364059126490234</v>
       </c>
       <c r="C83">
-        <v>-0.01484681554715056</v>
+        <v>0.02997442108997873</v>
       </c>
       <c r="D83">
-        <v>-0.03655312950617381</v>
+        <v>-0.005945887540046779</v>
       </c>
       <c r="E83">
-        <v>0.0171728962038516</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02828602306192824</v>
+      </c>
+      <c r="F83">
+        <v>0.03236812867678063</v>
+      </c>
+      <c r="G83">
+        <v>-0.06202816617371777</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02877803365285123</v>
+        <v>0.2128004883413718</v>
       </c>
       <c r="C85">
-        <v>-0.08272669029438816</v>
+        <v>0.1452332653230108</v>
       </c>
       <c r="D85">
-        <v>-0.2697176802339144</v>
+        <v>0.01783026367632859</v>
       </c>
       <c r="E85">
-        <v>-0.04630310437651446</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09405394290954783</v>
+      </c>
+      <c r="F85">
+        <v>-0.1329032018046879</v>
+      </c>
+      <c r="G85">
+        <v>0.09235009552637034</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009873277758279838</v>
+        <v>0.01289617693501817</v>
       </c>
       <c r="C86">
-        <v>-0.01248088154757435</v>
+        <v>0.028406520287442</v>
       </c>
       <c r="D86">
-        <v>-0.05963859232169198</v>
+        <v>-0.01213239505790839</v>
       </c>
       <c r="E86">
-        <v>0.02686305776488415</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04700276982795882</v>
+      </c>
+      <c r="F86">
+        <v>0.0295827936124234</v>
+      </c>
+      <c r="G86">
+        <v>-0.1848186869558179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.005950489350528489</v>
+        <v>0.02194699937372065</v>
       </c>
       <c r="C87">
-        <v>0.01121741259362452</v>
+        <v>0.02304409261102613</v>
       </c>
       <c r="D87">
-        <v>-0.05068184723097161</v>
+        <v>-0.01163980314827701</v>
       </c>
       <c r="E87">
-        <v>0.02977551834949799</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08544534911582302</v>
+      </c>
+      <c r="F87">
+        <v>0.01314998833846956</v>
+      </c>
+      <c r="G87">
+        <v>-0.1173423210555039</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.03207733043125633</v>
+        <v>0.09320606892137645</v>
       </c>
       <c r="C88">
-        <v>-0.0257958572209358</v>
+        <v>0.06862607392148706</v>
       </c>
       <c r="D88">
-        <v>-0.06104883184972176</v>
+        <v>-0.02223845978608036</v>
       </c>
       <c r="E88">
-        <v>-0.001472047320633943</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.006676498281994881</v>
+      </c>
+      <c r="F88">
+        <v>-0.01978956584992003</v>
+      </c>
+      <c r="G88">
+        <v>-0.08809459404325806</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1351870967624779</v>
+        <v>0.2334553530494383</v>
       </c>
       <c r="C89">
-        <v>-0.3999767673337868</v>
+        <v>-0.3659074135051384</v>
       </c>
       <c r="D89">
-        <v>0.159392855090939</v>
+        <v>-0.0002419541391439523</v>
       </c>
       <c r="E89">
-        <v>-0.03504308053760249</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01435227460689136</v>
+      </c>
+      <c r="F89">
+        <v>-0.02530457319327019</v>
+      </c>
+      <c r="G89">
+        <v>-0.06818820929602913</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1075632178812117</v>
+        <v>0.2084537505589172</v>
       </c>
       <c r="C90">
-        <v>-0.3265056586696108</v>
+        <v>-0.3191277188236258</v>
       </c>
       <c r="D90">
-        <v>0.155249395696441</v>
+        <v>0.004430622898735965</v>
       </c>
       <c r="E90">
-        <v>0.005497104903651345</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.0038967066041647</v>
+      </c>
+      <c r="F90">
+        <v>-0.05321945602019839</v>
+      </c>
+      <c r="G90">
+        <v>-0.03647470829266056</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.02152310795388733</v>
+        <v>0.1863985712835252</v>
       </c>
       <c r="C91">
-        <v>-0.1043092877105127</v>
+        <v>0.1393553819237341</v>
       </c>
       <c r="D91">
-        <v>-0.2314726486597679</v>
+        <v>0.02229515994816311</v>
       </c>
       <c r="E91">
-        <v>-0.04479866215453467</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05950112501617798</v>
+      </c>
+      <c r="F91">
+        <v>-0.1462829301577524</v>
+      </c>
+      <c r="G91">
+        <v>-0.02461032019004233</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.07119877437214595</v>
+        <v>0.1997308138074952</v>
       </c>
       <c r="C92">
-        <v>-0.3138069848836565</v>
+        <v>-0.2580351898661188</v>
       </c>
       <c r="D92">
-        <v>0.05198570972929162</v>
+        <v>0.03817775054653067</v>
       </c>
       <c r="E92">
-        <v>0.05260164267602858</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.03586249166288813</v>
+      </c>
+      <c r="F92">
+        <v>-0.05825407211300722</v>
+      </c>
+      <c r="G92">
+        <v>-0.1270109534019906</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1072765023955932</v>
+        <v>0.2332119937496892</v>
       </c>
       <c r="C93">
-        <v>-0.3420897702620234</v>
+        <v>-0.3143044423325952</v>
       </c>
       <c r="D93">
-        <v>0.1203544548227611</v>
+        <v>0.01129880921603397</v>
       </c>
       <c r="E93">
-        <v>0.02130892375258582</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.008097116340869136</v>
+      </c>
+      <c r="F93">
+        <v>-0.04049905930791497</v>
+      </c>
+      <c r="G93">
+        <v>-0.05105501480409674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.05821238950752607</v>
+        <v>0.316361347754109</v>
       </c>
       <c r="C94">
-        <v>-0.1491537930652208</v>
+        <v>0.1776285630827259</v>
       </c>
       <c r="D94">
-        <v>-0.2870119028845619</v>
+        <v>0.01700644227963259</v>
       </c>
       <c r="E94">
-        <v>-0.09190581881139677</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1697426465545132</v>
+      </c>
+      <c r="F94">
+        <v>-0.4817751927605265</v>
+      </c>
+      <c r="G94">
+        <v>0.4124167214936884</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.001973051854864671</v>
+        <v>0.1012454663189214</v>
       </c>
       <c r="C95">
-        <v>-0.02194243856727832</v>
+        <v>0.08660085301590817</v>
       </c>
       <c r="D95">
-        <v>-0.1189692175306385</v>
+        <v>0.01081093421880388</v>
       </c>
       <c r="E95">
-        <v>0.1337457016451186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07189184154515585</v>
+      </c>
+      <c r="F95">
+        <v>0.2037117779788873</v>
+      </c>
+      <c r="G95">
+        <v>0.1013223481518231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.0326558376164287</v>
+        <v>0.1974033553169622</v>
       </c>
       <c r="C98">
-        <v>-0.1365770838363941</v>
+        <v>0.0469255413856774</v>
       </c>
       <c r="D98">
-        <v>-0.1620351665507717</v>
+        <v>0.01327486289718402</v>
       </c>
       <c r="E98">
-        <v>0.03388270080888756</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.0662543157016188</v>
+      </c>
+      <c r="F98">
+        <v>0.2401551984561042</v>
+      </c>
+      <c r="G98">
+        <v>-0.001793015445238051</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01044331882420509</v>
+        <v>0.009201707688173693</v>
       </c>
       <c r="C101">
-        <v>-0.0126472030825723</v>
+        <v>0.02288269637659652</v>
       </c>
       <c r="D101">
-        <v>-0.0207415925734467</v>
+        <v>-0.008788465842067581</v>
       </c>
       <c r="E101">
-        <v>0.003873492685095731</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.0007956420410864245</v>
+      </c>
+      <c r="F101">
+        <v>-0.01794468584148584</v>
+      </c>
+      <c r="G101">
+        <v>-0.09349805125811202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.02121506128758055</v>
+        <v>0.1165938161967575</v>
       </c>
       <c r="C102">
-        <v>-0.03875991247803379</v>
+        <v>0.08331686085455532</v>
       </c>
       <c r="D102">
-        <v>-0.1313468912676637</v>
+        <v>-0.000665120937331332</v>
       </c>
       <c r="E102">
-        <v>-0.0244785677915035</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03400320947267121</v>
+      </c>
+      <c r="F102">
+        <v>-0.04360297894804496</v>
+      </c>
+      <c r="G102">
+        <v>-0.009578226939773704</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9443222447983598</v>
+        <v>0.02121180693540024</v>
       </c>
       <c r="C104">
-        <v>0.2984655757403423</v>
+        <v>-0.0294776993433066</v>
       </c>
       <c r="D104">
-        <v>0.03841316745272742</v>
+        <v>-0.9877973332145125</v>
       </c>
       <c r="E104">
-        <v>-0.02678764925716393</v>
+        <v>0.04660897777147417</v>
+      </c>
+      <c r="F104">
+        <v>-0.03599586179194413</v>
+      </c>
+      <c r="G104">
+        <v>0.0340984016671156</v>
       </c>
     </row>
   </sheetData>
